--- a/GL160_Script_DeleteJournal_21B.xlsx
+++ b/GL160_Script_DeleteJournal_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAB1D98-DC87-44B9-B1B1-B344D3EE3C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466C87A-D96A-457F-9B10-22B43441DBA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeleteJournal" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DeleteJournal!$A$1:$N$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DeleteJournal!$A$1:$N$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="318">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -335,9 +334,6 @@
     <t>Click on ManageJournals</t>
   </si>
   <si>
-    <t>Accounting Period entered</t>
-  </si>
-  <si>
     <t>//button[contains(@id,':pt1:ap1:queryP::search')]</t>
   </si>
   <si>
@@ -620,12 +616,6 @@
     <t>Delete a Journal Batch</t>
   </si>
   <si>
-    <t>//input[contains(@id,'ap1:queryP:value10::content')]</t>
-  </si>
-  <si>
-    <t>EnterBatch</t>
-  </si>
-  <si>
     <t>//tr[contains(@id,':pt1:ap1:deleteBatch')]/td[2]</t>
   </si>
   <si>
@@ -662,9 +652,6 @@
     <t>Click on EnterBatch</t>
   </si>
   <si>
-    <t>Enter on EnterBatch</t>
-  </si>
-  <si>
     <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
   </si>
   <si>
@@ -744,9 +731,6 @@
   </si>
   <si>
     <t>//a[@title='Expand Search']</t>
-  </si>
-  <si>
-    <t>SetDelay</t>
   </si>
   <si>
     <t>//div[table[@summary='Search Results']]</t>
@@ -819,64 +803,207 @@
     <t>Step 65</t>
   </si>
   <si>
+    <t>Step 67</t>
+  </si>
+  <si>
+    <t>Step 68</t>
+  </si>
+  <si>
+    <t>Step 69</t>
+  </si>
+  <si>
+    <t>Step 70</t>
+  </si>
+  <si>
+    <t>Step 71</t>
+  </si>
+  <si>
+    <t>CHANGE HISTORY</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>Arrow Wait</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>Click on Arrow</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'clusters-right-nav')]</t>
+  </si>
+  <si>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>Verified Text</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>VerifySearchJournal</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
+  </si>
+  <si>
+    <t>EnterJournalName</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value00::content')]</t>
+  </si>
+  <si>
+    <t>Step 72</t>
+  </si>
+  <si>
+    <t>Step 73</t>
+  </si>
+  <si>
+    <t>EnterJournalBatch</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value10::content')]</t>
+  </si>
+  <si>
+    <t>VerifySearchJournalDeleted</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ap1:AT1:_ATp:t1::db')]</t>
+  </si>
+  <si>
     <t>Step 66</t>
   </si>
   <si>
-    <t>Step 67</t>
-  </si>
-  <si>
-    <t>Step 68</t>
-  </si>
-  <si>
-    <t>Step 69</t>
-  </si>
-  <si>
-    <t>Step 70</t>
-  </si>
-  <si>
-    <t>Step 71</t>
-  </si>
-  <si>
-    <t>CHANGE HISTORY</t>
-  </si>
-  <si>
-    <t>MediumExplicitWait</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>Arrow Wait</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>Click on Arrow</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'clusters-right-nav')]</t>
+    <t>Step 74</t>
+  </si>
+  <si>
+    <t>Step 75</t>
+  </si>
+  <si>
+    <t>Step 76</t>
+  </si>
+  <si>
+    <t>Step 77</t>
+  </si>
+  <si>
+    <t>Step 78</t>
+  </si>
+  <si>
+    <t>Step 79</t>
+  </si>
+  <si>
+    <t>Step 80</t>
+  </si>
+  <si>
+    <t>Step 81</t>
+  </si>
+  <si>
+    <t>Step 82</t>
+  </si>
+  <si>
+    <t>Step 83</t>
+  </si>
+  <si>
+    <t>Step 84</t>
+  </si>
+  <si>
+    <t>Step 85</t>
+  </si>
+  <si>
+    <t>Step 86</t>
+  </si>
+  <si>
+    <t>Step 87</t>
+  </si>
+  <si>
+    <t>Step 88</t>
+  </si>
+  <si>
+    <t>Step 89</t>
+  </si>
+  <si>
+    <t>Step 90</t>
+  </si>
+  <si>
+    <t>Step 91</t>
+  </si>
+  <si>
+    <t>Step 92</t>
+  </si>
+  <si>
+    <t>Step 93</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Tab Key Enter</t>
+  </si>
+  <si>
+    <t>Tab Key Entered</t>
+  </si>
+  <si>
+    <t>Enter Journal Name</t>
+  </si>
+  <si>
+    <t>Journal Name Entered</t>
+  </si>
+  <si>
+    <t>Enter Journal Batch</t>
+  </si>
+  <si>
+    <t>Journal Batch Entered</t>
+  </si>
+  <si>
+    <t>Entered Journal Name</t>
+  </si>
+  <si>
+    <t>Entered Journal Batch</t>
+  </si>
+  <si>
+    <t>Enter Accounting Period</t>
+  </si>
+  <si>
+    <t>Entered Accounting Period</t>
+  </si>
+  <si>
+    <t>Step 94</t>
+  </si>
+  <si>
+    <t>Step 95</t>
+  </si>
+  <si>
+    <t>Step 96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#.;\(&quot;$&quot;#,\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1056,7 +1183,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1064,21 +1190,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,24 +1444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9324,43 +9419,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7828">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17192,7 +17265,307 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18467,3731 +18840,4136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N228"/>
+  <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="22.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.08984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.08984375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" ht="20.5" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="M3" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="M4" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="M26" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G27" t="s">
+        <v>241</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="M30" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="M34" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="J42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="K49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="M53" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="M56" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="H69" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="13">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="J69" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K69" s="5"/>
+      <c r="M69" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" t="s">
+        <v>305</v>
+      </c>
+      <c r="E70" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>241</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I70"/>
+      <c r="J70" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H73" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="13">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="J73" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="M73" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>241</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I74"/>
+      <c r="J74" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="M77" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>241</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="M84" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="M86" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12" t="s">
+      <c r="H89" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="13">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="K89" s="2"/>
+      <c r="M89" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F90" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="H90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="J90" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G91" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="13">
-      <c r="A8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="H91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="M91" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G92" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="H92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" ht="13">
-      <c r="A9" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="J92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="M92" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="H93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="M93" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G94" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="H94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="J94" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="M94" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="M95" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="13">
-      <c r="A13" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="13">
-      <c r="A14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="13">
-      <c r="A15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="13">
-      <c r="A16" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" ht="13">
-      <c r="A17" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="13">
-      <c r="A18" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="13">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="13">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" ht="13">
-      <c r="A21" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" ht="13">
-      <c r="A22" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" ht="13">
-      <c r="A23" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="13">
-      <c r="A24" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="13">
-      <c r="A25" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="13">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="13">
-      <c r="A27" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="13">
-      <c r="A28" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="H96" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="M96" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="13">
-      <c r="A29" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="13">
-      <c r="A30" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="13">
-      <c r="A32" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" ht="13">
-      <c r="A33" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="13">
-      <c r="A34" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="13">
-      <c r="A35" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="13">
-      <c r="A36" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="13">
-      <c r="A37" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="13">
-      <c r="A38" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="12" t="s">
+      <c r="G97" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="13">
-      <c r="A39" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" ht="13">
-      <c r="A40" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="13">
-      <c r="A41" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" ht="13">
-      <c r="A42" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" ht="13">
-      <c r="A43" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" ht="13">
-      <c r="A44" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" s="12" t="s">
+      <c r="J97" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" ht="13">
-      <c r="A45" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I46" s="12" t="s">
+      <c r="K97" s="2"/>
+      <c r="M97" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="12">
-        <v>60</v>
-      </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="13">
-      <c r="A47" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" ht="13">
-      <c r="A48" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" ht="13">
-      <c r="A49" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" ht="13">
-      <c r="A50" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="13">
-      <c r="A51" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J51" s="12">
-        <v>60</v>
-      </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="13">
-      <c r="A52" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" ht="13">
-      <c r="A53" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" ht="13">
-      <c r="A54" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" ht="13">
-      <c r="A55" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K55" s="13"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" ht="13">
-      <c r="A56" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="13"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" ht="13">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" ht="13">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" ht="13">
-      <c r="A59" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" ht="13">
-      <c r="A60" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" ht="13">
-      <c r="A61" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" ht="13">
-      <c r="A62" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K62" s="13"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" ht="13">
-      <c r="A63" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K63" s="13"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" ht="13">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" ht="13">
-      <c r="A65" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="1:14" ht="13">
-      <c r="A66" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="1:14" ht="13">
-      <c r="A67" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="1:14" ht="13">
-      <c r="A68" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="1:14" ht="13">
-      <c r="A69" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="K69" s="13"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="1:14" ht="13">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="1:14" ht="13">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N71" s="12"/>
-    </row>
-    <row r="72" spans="1:14" ht="13">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="1:14" ht="13">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N73" s="12"/>
-    </row>
-    <row r="74" spans="1:14" ht="13">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N74" s="12"/>
-    </row>
-    <row r="75" spans="1:14" ht="13">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J75" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="1:14" ht="13">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N76" s="12"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="9:11">
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="9:11">
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="9:11">
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="9:11">
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="9:11">
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="9:11">
-      <c r="I86" s="2"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="9:11">
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="9:11">
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="9:11">
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="9:11">
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="9:11">
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="9:11">
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="9:11">
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="9:11">
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="9:11">
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="9:11">
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="9:11">
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="9:11">
+    </row>
+    <row r="98" spans="1:13">
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="9:11">
+    <row r="99" spans="1:13">
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="9:11">
+    <row r="100" spans="1:13">
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="9:11">
+    <row r="101" spans="1:13">
       <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="9:11">
+    <row r="102" spans="1:13">
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="9:11">
+    <row r="103" spans="1:13">
       <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="9:11">
+    <row r="104" spans="1:13">
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="9:11">
+    <row r="105" spans="1:13">
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="9:11">
+    <row r="106" spans="1:13">
       <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="9:11">
+    <row r="107" spans="1:13">
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="9:11">
+    <row r="108" spans="1:13">
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="9:11">
+    <row r="109" spans="1:13">
       <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="9:11">
+    <row r="110" spans="1:13">
       <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="9:11">
+    <row r="111" spans="1:13">
       <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="9:11">
+    <row r="112" spans="1:13">
       <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="9:11">
       <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="9:11">
       <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="9:11">
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="9:11">
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="9:11">
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="9:11">
       <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="9:11">
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="9:11">
       <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="9:11">
       <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="9:11">
       <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="9:11">
       <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="9:11">
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="9:11">
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="9:11">
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="9:11">
       <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="9:11">
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="9:11">
       <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="9:11">
       <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="9:11">
       <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="9:11">
       <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="9:11">
       <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="9:11">
       <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="9:11">
       <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="9:11">
       <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="9:11">
       <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="9:11">
       <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
     <row r="139" spans="9:11">
       <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="9:11">
       <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
     <row r="141" spans="9:11">
       <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="9:11">
       <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="9:11">
       <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="9:11">
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="9:11">
       <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
     <row r="146" spans="9:11">
       <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
     <row r="147" spans="9:11">
       <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
     <row r="148" spans="9:11">
       <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
     <row r="149" spans="9:11">
       <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
     <row r="150" spans="9:11">
       <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
     <row r="151" spans="9:11">
       <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
     <row r="152" spans="9:11">
       <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="9:11">
       <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="9:11">
       <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
     <row r="155" spans="9:11">
       <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
     <row r="156" spans="9:11">
       <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
     <row r="157" spans="9:11">
       <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
     <row r="158" spans="9:11">
       <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
     <row r="159" spans="9:11">
       <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
     <row r="160" spans="9:11">
       <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
     <row r="161" spans="9:11">
       <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
     <row r="162" spans="9:11">
       <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
     <row r="163" spans="9:11">
       <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="9:11">
       <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
     <row r="165" spans="9:11">
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
     <row r="166" spans="9:11">
       <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
     <row r="167" spans="9:11">
       <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
     <row r="168" spans="9:11">
       <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
     <row r="169" spans="9:11">
       <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
     <row r="170" spans="9:11">
       <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
     <row r="171" spans="9:11">
       <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
     <row r="172" spans="9:11">
       <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
     <row r="173" spans="9:11">
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
     <row r="174" spans="9:11">
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
     <row r="175" spans="9:11">
       <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
     <row r="176" spans="9:11">
       <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
     <row r="177" spans="9:11">
       <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
     <row r="178" spans="9:11">
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
     <row r="179" spans="9:11">
       <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
     <row r="180" spans="9:11">
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
     <row r="181" spans="9:11">
       <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
     <row r="182" spans="9:11">
       <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
     <row r="183" spans="9:11">
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
     <row r="184" spans="9:11">
       <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
     <row r="185" spans="9:11">
       <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
     <row r="186" spans="9:11">
       <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
     <row r="187" spans="9:11">
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
     <row r="188" spans="9:11">
       <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
     <row r="189" spans="9:11">
       <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
     <row r="190" spans="9:11">
       <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
     <row r="191" spans="9:11">
       <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
     <row r="192" spans="9:11">
       <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
     <row r="193" spans="9:11">
       <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
     <row r="194" spans="9:11">
       <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
     <row r="195" spans="9:11">
       <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
     <row r="196" spans="9:11">
       <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
     <row r="197" spans="9:11">
       <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
     <row r="198" spans="9:11">
       <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
     <row r="199" spans="9:11">
       <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
     <row r="200" spans="9:11">
       <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
     <row r="201" spans="9:11">
       <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
     <row r="202" spans="9:11">
       <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
     <row r="203" spans="9:11">
       <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
     <row r="204" spans="9:11">
       <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
     <row r="205" spans="9:11">
       <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
     <row r="206" spans="9:11">
       <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
     <row r="207" spans="9:11">
       <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
     <row r="208" spans="9:11">
       <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
     <row r="209" spans="9:11">
       <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
     <row r="210" spans="9:11">
       <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
     <row r="211" spans="9:11">
       <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
     <row r="212" spans="9:11">
       <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
     <row r="213" spans="9:11">
       <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
     <row r="214" spans="9:11">
       <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
     <row r="215" spans="9:11">
       <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
     <row r="216" spans="9:11">
       <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
     <row r="217" spans="9:11">
       <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
     <row r="218" spans="9:11">
       <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
     <row r="219" spans="9:11">
       <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
     <row r="220" spans="9:11">
       <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
     <row r="221" spans="9:11">
       <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
     <row r="222" spans="9:11">
       <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
     <row r="223" spans="9:11">
       <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
     <row r="224" spans="9:11">
       <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="9:11">
       <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="9:11">
       <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11">
-      <c r="A227" s="4"/>
-      <c r="B227" s="7"/>
+    <row r="227" spans="9:11">
       <c r="I227" s="2"/>
-      <c r="J227" s="8"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="9:11">
       <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
+    <row r="229" spans="9:11">
+      <c r="I229" s="2"/>
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="9:11">
+      <c r="I230" s="2"/>
+      <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="9:11">
+      <c r="I231" s="2"/>
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="9:11">
+      <c r="I232" s="2"/>
+      <c r="K232" s="2"/>
+    </row>
+    <row r="233" spans="9:11">
+      <c r="I233" s="2"/>
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="9:11">
+      <c r="I234" s="2"/>
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="9:11">
+      <c r="I235" s="2"/>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="9:11">
+      <c r="I236" s="2"/>
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="9:11">
+      <c r="I237" s="2"/>
+      <c r="K237" s="2"/>
+    </row>
+    <row r="238" spans="9:11">
+      <c r="I238" s="2"/>
+      <c r="K238" s="2"/>
+    </row>
+    <row r="239" spans="9:11">
+      <c r="I239" s="2"/>
+      <c r="K239" s="2"/>
+    </row>
+    <row r="240" spans="9:11">
+      <c r="I240" s="2"/>
+      <c r="K240" s="2"/>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="I241" s="2"/>
+      <c r="K241" s="2"/>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="I242" s="2"/>
+      <c r="K242" s="2"/>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="I243" s="2"/>
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="I244" s="2"/>
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="I245" s="2"/>
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="I246" s="2"/>
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="I247" s="2"/>
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="4"/>
+      <c r="B248" s="6"/>
+      <c r="I248" s="2"/>
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="I249" s="2"/>
+      <c r="K249" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N76" xr:uid="{DF3A3B2C-78E7-438D-B2D5-5E79297AECA8}"/>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H196:I196">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+  <conditionalFormatting sqref="H217:I217">
+    <cfRule type="duplicateValues" dxfId="122" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H196:I196">
-    <cfRule type="duplicateValues" dxfId="91" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="92"/>
+  <conditionalFormatting sqref="H217:I217">
+    <cfRule type="duplicateValues" dxfId="121" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="89" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="88" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="87" priority="80"/>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="117" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="86" priority="78"/>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="116" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="85" priority="76"/>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="115" priority="119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="84" priority="74"/>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="83" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="82" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="80" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="79" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="78" priority="63"/>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="77" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11">
+    <cfRule type="duplicateValues" dxfId="106" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="duplicateValues" dxfId="105" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="duplicateValues" dxfId="103" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="duplicateValues" dxfId="102" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="100" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="99" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="duplicateValues" dxfId="97" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="duplicateValues" dxfId="96" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="95" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="94" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="duplicateValues" dxfId="92" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="duplicateValues" dxfId="91" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="89" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="88" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="duplicateValues" dxfId="86" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="duplicateValues" dxfId="85" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="duplicateValues" dxfId="83" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="duplicateValues" dxfId="82" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="duplicateValues" dxfId="81" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="79" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="78" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="duplicateValues" dxfId="76" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11">
+  <conditionalFormatting sqref="H44">
     <cfRule type="duplicateValues" dxfId="75" priority="52"/>
     <cfRule type="duplicateValues" dxfId="74" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="duplicateValues" dxfId="73" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="duplicateValues" dxfId="72" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="70" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="69" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="67" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="66" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="64" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="63" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="61" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="60" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="58" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="57" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="55" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="duplicateValues" dxfId="54" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="duplicateValues" dxfId="53" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="52" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="51" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="49" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="48" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="46" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="45" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="43" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="42" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="40" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="36" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="68" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="duplicateValues" dxfId="66" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="duplicateValues" dxfId="65" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="duplicateValues" dxfId="63" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="duplicateValues" dxfId="62" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="60" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="59" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="duplicateValues" dxfId="57" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="duplicateValues" dxfId="56" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="54" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="53" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="51" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="50" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="49" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="47" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81">
+    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81">
+    <cfRule type="duplicateValues" dxfId="43" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="duplicateValues" dxfId="41" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="40" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="33" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="duplicateValues" dxfId="25" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I196 I2:I3 I8" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J48 F65 F32:G64 F27 F66:G1048576 F28:G30 F31 F1:G26" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" sqref="I217 I2:I3 I8" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J53 F69 F26 F35:G68 F27:G29 F34 F1:G25 F70:G72 F73 F77 F74:G76 F30 F31:G33 F78:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -22202,648 +22980,690 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.90625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="7" customFormat="1">
+      <c r="A42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="7" customFormat="1">
+      <c r="A43" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D43" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="12" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="45" spans="1:4" s="7" customFormat="1">
+      <c r="A45" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="12" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13">
-      <c r="A31" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13">
-      <c r="A33" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13">
-      <c r="A34" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13">
-      <c r="A35" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13">
-      <c r="A36" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13">
-      <c r="A37" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13">
-      <c r="A38" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13">
-      <c r="A41" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="9" customFormat="1" ht="13">
-      <c r="A42" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="9" customFormat="1" ht="13">
-      <c r="A43" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13">
-      <c r="A44" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="9" customFormat="1" ht="13">
-      <c r="A45" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="C48" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -22851,10 +23671,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D48">
     <sortCondition ref="D13:D48"/>
   </sortState>
-  <conditionalFormatting sqref="A35:A41 A1 A85:A1048576 A46:A83">
+  <conditionalFormatting sqref="A35:A41 A1 A85:A1048576 A49:A83">
     <cfRule type="duplicateValues" dxfId="23" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A41 A1 A85:A1048576 A46:A83">
+  <conditionalFormatting sqref="A35:A41 A1 A85:A1048576 A49:A83">
     <cfRule type="duplicateValues" dxfId="22" priority="44"/>
     <cfRule type="duplicateValues" dxfId="21" priority="45"/>
   </conditionalFormatting>
@@ -22865,10 +23685,10 @@
     <cfRule type="duplicateValues" dxfId="19" priority="35"/>
     <cfRule type="duplicateValues" dxfId="18" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A12 A17 A14:A15">
+  <conditionalFormatting sqref="A2:A11 A17 A14:A15">
     <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A12 A17 A14:A15">
+  <conditionalFormatting sqref="A2:A11 A17 A14:A15">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>

--- a/GL160_Script_DeleteJournal_21B.xlsx
+++ b/GL160_Script_DeleteJournal_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466C87A-D96A-457F-9B10-22B43441DBA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C572191-43DB-403C-B751-937558372A50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18843,7 +18843,7 @@
   <dimension ref="A1:N249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>

--- a/GL160_Script_DeleteJournal_21B.xlsx
+++ b/GL160_Script_DeleteJournal_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C572191-43DB-403C-B751-937558372A50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C21F5E-48AC-4BE5-A8D2-56FCF5F5D9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeleteJournal" sheetId="30" r:id="rId1"/>
@@ -18843,7 +18843,7 @@
   <dimension ref="A1:N249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
